--- a/Data_frame/balancos_definitivos/BSCT5.xlsx
+++ b/Data_frame/balancos_definitivos/BSCT5.xlsx
@@ -7946,7 +7946,7 @@
         <v>122934</v>
       </c>
       <c r="H58" t="n">
-        <v>54560.032</v>
+        <v>54560.008</v>
       </c>
       <c r="I58" t="n">
         <v>55854</v>
@@ -7958,7 +7958,7 @@
         <v>75823</v>
       </c>
       <c r="L58" t="n">
-        <v>95708.992</v>
+        <v>95709</v>
       </c>
       <c r="M58" t="n">
         <v>64888</v>
@@ -8030,7 +8030,7 @@
         <v>157908</v>
       </c>
       <c r="AJ58" t="n">
-        <v>153709.984</v>
+        <v>153709.968</v>
       </c>
       <c r="AK58" t="n">
         <v>164864.992</v>
@@ -8042,7 +8042,7 @@
         <v>173944</v>
       </c>
       <c r="AN58" t="n">
-        <v>157021.984</v>
+        <v>157022</v>
       </c>
       <c r="AO58" t="n">
         <v>159440</v>
@@ -8072,7 +8072,7 @@
         <v>-66862</v>
       </c>
       <c r="H59" t="n">
-        <v>-49248.992</v>
+        <v>-49249</v>
       </c>
       <c r="I59" t="n">
         <v>-34447</v>
@@ -8120,7 +8120,7 @@
         <v>-87849</v>
       </c>
       <c r="X59" t="n">
-        <v>-67796</v>
+        <v>-67795.992</v>
       </c>
       <c r="Y59" t="n">
         <v>-61189</v>
@@ -8132,7 +8132,7 @@
         <v>-73285</v>
       </c>
       <c r="AB59" t="n">
-        <v>-69600</v>
+        <v>-69600.008</v>
       </c>
       <c r="AC59" t="n">
         <v>-78093</v>
@@ -8144,7 +8144,7 @@
         <v>-101947</v>
       </c>
       <c r="AF59" t="n">
-        <v>-100682.016</v>
+        <v>-100682.008</v>
       </c>
       <c r="AG59" t="n">
         <v>-93468</v>
@@ -8168,7 +8168,7 @@
         <v>-85773</v>
       </c>
       <c r="AN59" t="n">
-        <v>-87246.976</v>
+        <v>-87246.984</v>
       </c>
       <c r="AO59" t="n">
         <v>-93103</v>
@@ -8258,7 +8258,7 @@
         <v>87595</v>
       </c>
       <c r="AB60" t="n">
-        <v>70201.024</v>
+        <v>70201.016</v>
       </c>
       <c r="AC60" t="n">
         <v>69258</v>
@@ -8270,7 +8270,7 @@
         <v>85232</v>
       </c>
       <c r="AF60" t="n">
-        <v>111642</v>
+        <v>111642.008</v>
       </c>
       <c r="AG60" t="n">
         <v>93971</v>
@@ -8282,7 +8282,7 @@
         <v>74855</v>
       </c>
       <c r="AJ60" t="n">
-        <v>79368.992</v>
+        <v>79368.984</v>
       </c>
       <c r="AK60" t="n">
         <v>91145</v>
@@ -8324,7 +8324,7 @@
         <v>-61245</v>
       </c>
       <c r="H61" t="n">
-        <v>-36240.992</v>
+        <v>-36241</v>
       </c>
       <c r="I61" t="n">
         <v>-50065</v>
@@ -8372,7 +8372,7 @@
         <v>-76803</v>
       </c>
       <c r="X61" t="n">
-        <v>-68432</v>
+        <v>-68431.992</v>
       </c>
       <c r="Y61" t="n">
         <v>-58719</v>
@@ -8408,7 +8408,7 @@
         <v>-53124</v>
       </c>
       <c r="AJ61" t="n">
-        <v>-82812</v>
+        <v>-82811.992</v>
       </c>
       <c r="AK61" t="n">
         <v>-47929</v>
@@ -8420,7 +8420,7 @@
         <v>-44848</v>
       </c>
       <c r="AN61" t="n">
-        <v>-83026.992</v>
+        <v>-83027</v>
       </c>
       <c r="AO61" t="n">
         <v>-59351</v>
@@ -9494,7 +9494,7 @@
         <v>-641356.032</v>
       </c>
       <c r="T70" t="n">
-        <v>-47842.944</v>
+        <v>-47842.968</v>
       </c>
       <c r="U70" t="n">
         <v>178</v>
@@ -9746,7 +9746,7 @@
         <v>-644632</v>
       </c>
       <c r="T72" t="n">
-        <v>-48031.936</v>
+        <v>-48031.976</v>
       </c>
       <c r="U72" t="n">
         <v>-230</v>
@@ -10452,46 +10452,20 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
